--- a/RealTimeProjectOfActitime/data/customername.xlsx
+++ b/RealTimeProjectOfActitime/data/customername.xlsx
@@ -3,15 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8373B67E-EFBD-4EDE-8DF1-EF6B9FE28D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E996833-E170-4E24-BC29-7BEC6B784F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creatcustomer" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>HDFC_001</t>
-  </si>
-  <si>
     <t>BnkingProject</t>
   </si>
   <si>
@@ -45,6 +46,9 @@
   </si>
   <si>
     <t>CustomerDescription</t>
+  </si>
+  <si>
+    <t>HDFC_0024</t>
   </si>
 </sst>
 </file>
@@ -365,7 +369,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -378,30 +382,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
